--- a/Data_Set/ComputerUse.xlsx
+++ b/Data_Set/ComputerUse.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MANB1123_Business StatDS\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F36EA-59EE-4219-97F0-4D427E9320F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="8730" windowHeight="4485" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Description" sheetId="15" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -185,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,6 +294,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -326,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +377,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,30 +621,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P65536"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I213" sqref="I213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="11" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -656,7 +708,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>16</v>
       </c>
@@ -947,7 +999,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>21</v>
       </c>
@@ -1122,7 +1174,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -1181,7 +1233,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1385,7 +1437,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -1502,7 +1554,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>16</v>
       </c>
@@ -1619,7 +1671,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>6</v>
       </c>
@@ -1678,7 +1730,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>15</v>
       </c>
@@ -1882,7 +1934,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>13</v>
       </c>
@@ -5161,6 +5213,9 @@
       <c r="H157" s="5">
         <v>3</v>
       </c>
+      <c r="I157" s="1">
+        <v>1200</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
@@ -5187,6 +5242,9 @@
       <c r="H158" s="5">
         <v>5</v>
       </c>
+      <c r="I158" s="1">
+        <v>1300</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
@@ -5213,6 +5271,9 @@
       <c r="H159" s="5">
         <v>1</v>
       </c>
+      <c r="I159" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
@@ -5239,8 +5300,11 @@
       <c r="H160" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>14</v>
       </c>
@@ -5265,8 +5329,11 @@
       <c r="H161" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>14</v>
       </c>
@@ -5291,8 +5358,11 @@
       <c r="H162" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>13</v>
       </c>
@@ -5317,8 +5387,11 @@
       <c r="H163" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>15</v>
       </c>
@@ -5343,8 +5416,11 @@
       <c r="H164" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>7</v>
       </c>
@@ -5369,8 +5445,11 @@
       <c r="H165" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>16</v>
       </c>
@@ -5395,8 +5474,11 @@
       <c r="H166" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>19</v>
       </c>
@@ -5421,8 +5503,11 @@
       <c r="H167" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>8</v>
       </c>
@@ -5447,8 +5532,11 @@
       <c r="H168" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>15</v>
       </c>
@@ -5473,8 +5561,11 @@
       <c r="H169" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>14</v>
       </c>
@@ -5499,8 +5590,11 @@
       <c r="H170" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>22</v>
       </c>
@@ -5525,8 +5619,11 @@
       <c r="H171" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>13</v>
       </c>
@@ -5551,8 +5648,11 @@
       <c r="H172" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>15</v>
       </c>
@@ -5577,8 +5677,11 @@
       <c r="H173" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>3</v>
       </c>
@@ -5603,8 +5706,11 @@
       <c r="H174" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>13</v>
       </c>
@@ -5629,8 +5735,11 @@
       <c r="H175" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>16</v>
       </c>
@@ -5655,8 +5764,11 @@
       <c r="H176" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>18</v>
       </c>
@@ -5681,8 +5793,11 @@
       <c r="H177" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>10</v>
       </c>
@@ -5707,8 +5822,11 @@
       <c r="H178" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>7</v>
       </c>
@@ -5733,8 +5851,11 @@
       <c r="H179" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>12</v>
       </c>
@@ -5759,8 +5880,11 @@
       <c r="H180" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>12</v>
       </c>
@@ -5785,8 +5909,11 @@
       <c r="H181" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I181" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>15</v>
       </c>
@@ -5811,8 +5938,11 @@
       <c r="H182" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I182" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>15</v>
       </c>
@@ -5837,8 +5967,11 @@
       <c r="H183" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I183" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>17</v>
       </c>
@@ -5863,8 +5996,11 @@
       <c r="H184" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>15</v>
       </c>
@@ -5889,8 +6025,11 @@
       <c r="H185" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I185" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>12</v>
       </c>
@@ -5915,8 +6054,11 @@
       <c r="H186" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>12</v>
       </c>
@@ -5941,8 +6083,11 @@
       <c r="H187" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>3</v>
       </c>
@@ -5967,8 +6112,11 @@
       <c r="H188" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I188" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>15</v>
       </c>
@@ -5993,8 +6141,11 @@
       <c r="H189" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>16</v>
       </c>
@@ -6019,8 +6170,11 @@
       <c r="H190" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>9</v>
       </c>
@@ -6045,8 +6199,11 @@
       <c r="H191" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>12</v>
       </c>
@@ -6071,8 +6228,11 @@
       <c r="H192" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I192" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>16</v>
       </c>
@@ -6097,8 +6257,11 @@
       <c r="H193" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>13</v>
       </c>
@@ -6123,8 +6286,11 @@
       <c r="H194" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>11</v>
       </c>
@@ -6149,8 +6315,11 @@
       <c r="H195" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="1">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>13</v>
       </c>
@@ -6175,8 +6344,11 @@
       <c r="H196" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>10</v>
       </c>
@@ -6201,8 +6373,11 @@
       <c r="H197" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I197" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>13</v>
       </c>
@@ -6227,8 +6402,11 @@
       <c r="H198" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>6</v>
       </c>
@@ -6253,8 +6431,11 @@
       <c r="H199" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I199" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>13</v>
       </c>
@@ -6279,8 +6460,11 @@
       <c r="H200" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I200" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>18</v>
       </c>
@@ -6305,8 +6489,11 @@
       <c r="H201" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I201" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>4</v>
       </c>
@@ -6331,8 +6518,11 @@
       <c r="H202" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>12</v>
       </c>
@@ -6357,8 +6547,11 @@
       <c r="H203" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I203" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>16</v>
       </c>
@@ -6383,8 +6576,11 @@
       <c r="H204" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>14</v>
       </c>
@@ -6409,8 +6605,11 @@
       <c r="H205" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I205" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>15</v>
       </c>
@@ -6435,8 +6634,11 @@
       <c r="H206" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>12</v>
       </c>
@@ -6461,8 +6663,11 @@
       <c r="H207" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>12</v>
       </c>
@@ -6487,8 +6692,11 @@
       <c r="H208" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>15</v>
       </c>
@@ -6513,8 +6721,11 @@
       <c r="H209" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I209" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>15</v>
       </c>
@@ -6539,8 +6750,11 @@
       <c r="H210" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I210" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>22</v>
       </c>
@@ -6565,8 +6779,11 @@
       <c r="H211" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I211" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>17</v>
       </c>
@@ -6591,8 +6808,11 @@
       <c r="H212" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>13</v>
       </c>
@@ -6617,8 +6837,11 @@
       <c r="H213" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I213" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>9</v>
       </c>
@@ -6643,8 +6866,11 @@
       <c r="H214" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>13</v>
       </c>
@@ -6669,8 +6895,11 @@
       <c r="H215" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I215" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>13</v>
       </c>
@@ -6695,8 +6924,11 @@
       <c r="H216" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I216" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>14</v>
       </c>
@@ -6721,8 +6953,11 @@
       <c r="H217" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I217" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>13</v>
       </c>
@@ -6747,8 +6982,11 @@
       <c r="H218" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I218" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>15</v>
       </c>
@@ -6773,8 +7011,11 @@
       <c r="H219" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I219" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>13</v>
       </c>
@@ -6799,8 +7040,11 @@
       <c r="H220" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I220" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>19</v>
       </c>
@@ -6825,8 +7069,11 @@
       <c r="H221" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I221" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>17</v>
       </c>
@@ -6851,8 +7098,11 @@
       <c r="H222" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I222" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>17</v>
       </c>
@@ -6877,8 +7127,11 @@
       <c r="H223" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I223" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>5</v>
       </c>
@@ -6903,8 +7156,11 @@
       <c r="H224" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I224" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>12</v>
       </c>
@@ -6929,8 +7185,11 @@
       <c r="H225" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I225" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>12</v>
       </c>
@@ -6955,8 +7214,11 @@
       <c r="H226" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I226" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>16</v>
       </c>
@@ -6981,8 +7243,11 @@
       <c r="H227" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I227" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>12</v>
       </c>
@@ -7007,8 +7272,11 @@
       <c r="H228" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I228" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>14</v>
       </c>
@@ -7033,8 +7301,11 @@
       <c r="H229" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I229" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>15</v>
       </c>
@@ -7059,8 +7330,11 @@
       <c r="H230" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I230" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>12</v>
       </c>
@@ -7085,8 +7359,11 @@
       <c r="H231" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I231" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>15</v>
       </c>
@@ -7111,8 +7388,11 @@
       <c r="H232" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I232" s="1">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>17</v>
       </c>
@@ -7137,8 +7417,11 @@
       <c r="H233" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I233" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>12</v>
       </c>
@@ -7163,8 +7446,11 @@
       <c r="H234" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I234" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>8</v>
       </c>
@@ -7189,8 +7475,11 @@
       <c r="H235" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I235" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>16</v>
       </c>
@@ -7215,8 +7504,11 @@
       <c r="H236" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I236" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>19</v>
       </c>
@@ -7241,8 +7533,11 @@
       <c r="H237" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I237" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>16</v>
       </c>
@@ -7267,8 +7562,11 @@
       <c r="H238" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I238" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>19</v>
       </c>
@@ -7292,6 +7590,9 @@
       </c>
       <c r="H239" s="5">
         <v>3</v>
+      </c>
+      <c r="I239" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
@@ -7474,20 +7775,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="13" width="8.77734375" style="1" customWidth="1"/>
+    <col min="2" max="13" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.6">
       <c r="A1" s="4"/>
       <c r="B1" s="8" t="s">
         <v>44</v>
@@ -7497,7 +7798,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -7516,10 +7817,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -7527,47 +7828,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -7575,27 +7876,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -7603,12 +7904,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -7616,37 +7917,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -7654,22 +7955,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -7677,17 +7978,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -7695,32 +7996,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
@@ -7728,7 +8029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
